--- a/biology/Zoologie/Jinzhousaurus/Jinzhousaurus.xlsx
+++ b/biology/Zoologie/Jinzhousaurus/Jinzhousaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jinzhousaurus yangi
-Jinzhousaurus est un genre éteint de dinosaures ornithopodes appartenant à la super-famille des Hadrosauroidea. Lors de sa création le genre était considéré comme un iguanodontidé[1]. Ses fossiles ont été découverts en Chine, dans la province du Liaoning. Ils appartiennent au biote de Jehol et ont été extraits de la formation géologique d'Yixian, datée du Crétacé inférieur (Aptien inférieur), il y a environ 125 Ma (millions d'années).
-L'unique espèce (et espèce type), Jinzhousaurus yangi, fut décrite pour la première fois par Xiaolin Wang (d) et Xu en 2001[1].
+Jinzhousaurus est un genre éteint de dinosaures ornithopodes appartenant à la super-famille des Hadrosauroidea. Lors de sa création le genre était considéré comme un iguanodontidé. Ses fossiles ont été découverts en Chine, dans la province du Liaoning. Ils appartiennent au biote de Jehol et ont été extraits de la formation géologique d'Yixian, datée du Crétacé inférieur (Aptien inférieur), il y a environ 125 Ma (millions d'années).
+L'unique espèce (et espèce type), Jinzhousaurus yangi, fut décrite pour la première fois par Xiaolin Wang (d) et Xu en 2001.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nome de genre Jinzhousaurus signifie reptile de Jinzhou, la ville près de laquelle il a été trouvé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nome de genre Jinzhousaurus signifie reptile de Jinzhou, la ville près de laquelle il a été trouvé.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fossile découvert est un squelette quasi complet, mais fortement comprimé lors de la fossilisation.
-Jinzhousaurus yangi mesurait entre 7 et 10 mètres de long selon les sources[1],[2].
-Son crâne mesure environ 50 centimètres de long. Son museau était allongé avec de larges narines. Il est dépourvu de fenêtre antéorbitaire. L'arrière du crâne est exceptionnellement large avec une petite crête sur le dessus. Le dentaire de la mâchoire inférieure possède au moins dix-sept dents[1].
+Jinzhousaurus yangi mesurait entre 7 et 10 mètres de long selon les sources,.
+Son crâne mesure environ 50 centimètres de long. Son museau était allongé avec de larges narines. Il est dépourvu de fenêtre antéorbitaire. L'arrière du crâne est exceptionnellement large avec une petite crête sur le dessus. Le dentaire de la mâchoire inférieure possède au moins dix-sept dents.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de a description en 2001, Jinzhousaurus a été considéré comme un iguanodontidé[1]. Depuis la plupart des analyses phylogénétiques l'incluant le considèrent comme un Hadrosauroidea basal[3], voire le plus basal des Hadrosauroidea[4],[5].
-Le cladogramme ci-dessous, établi par Prieto-Márquez et al. en 2016 montre la position de Jinzhousaurus parmi les Hadrosauroidea[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de a description en 2001, Jinzhousaurus a été considéré comme un iguanodontidé. Depuis la plupart des analyses phylogénétiques l'incluant le considèrent comme un Hadrosauroidea basal, voire le plus basal des Hadrosauroidea,.
+Le cladogramme ci-dessous, établi par Prieto-Márquez et al. en 2016 montre la position de Jinzhousaurus parmi les Hadrosauroidea :
 </t>
         </is>
       </c>
